--- a/Sistema/Banco de dados/Substituir NR.xlsx
+++ b/Sistema/Banco de dados/Substituir NR.xlsx
@@ -19,36 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>\r\n</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">(^\d+\.\d+)(\.\d+) (.*) </t>
-  </si>
-  <si>
-    <t>'$1$2', '$3', \(SELECT id_nr FROM nr WHERE numero ilike '$1'\)</t>
-  </si>
-  <si>
     <t>^(.*)$</t>
   </si>
   <si>
     <t>INSERT INTO public.nr\(numero, descricao, id_nr_item\) VALUES \($1\);</t>
   </si>
   <si>
-    <t>(\d\.\d)</t>
-  </si>
-  <si>
-    <t>\n$1</t>
-  </si>
-  <si>
     <t>(^\d+\.\d+)(?!\.) (.*)$</t>
   </si>
   <si>
-    <t>'$1', '$2', \(SELECT id_nr FROM nr WHERE numero ilike '03'\)</t>
+    <t>\n^(?!\d)</t>
+  </si>
+  <si>
+    <t>$1</t>
+  </si>
+  <si>
+    <t>'$1', '$2', \(SELECT id_nr FROM nr WHERE numero ilike '05'\)</t>
+  </si>
+  <si>
+    <t>'$1', '$5', \(SELECT id_nr FROM nr WHERE numero ilike '$2$3'\)</t>
+  </si>
+  <si>
+    <t>^((\d+\.)+(\d+)\.(\d+)) (.*)</t>
   </si>
 </sst>
 </file>
@@ -410,51 +407,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sistema/Banco de dados/Substituir NR.xlsx
+++ b/Sistema/Banco de dados/Substituir NR.xlsx
@@ -33,9 +33,6 @@
     <t>(^\d+\.\d+)(?!\.) (.*)$</t>
   </si>
   <si>
-    <t>\n^(?!\d)</t>
-  </si>
-  <si>
     <t>$1</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>^((\d+\.)+(\d+)\.(\d+)) (.*)</t>
+  </si>
+  <si>
+    <t>\n^(?!\d+\.)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="B4:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -429,15 +429,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">

--- a/Sistema/Banco de dados/Substituir NR.xlsx
+++ b/Sistema/Banco de dados/Substituir NR.xlsx
@@ -36,16 +36,16 @@
     <t>$1</t>
   </si>
   <si>
-    <t>'$1', '$2', \(SELECT id_nr FROM nr WHERE numero ilike '05'\)</t>
-  </si>
-  <si>
-    <t>'$1', '$5', \(SELECT id_nr FROM nr WHERE numero ilike '$2$3'\)</t>
-  </si>
-  <si>
-    <t>^((\d+\.)+(\d+)\.(\d+)) (.*)</t>
-  </si>
-  <si>
-    <t>\n^(?!\d+\.)</t>
+    <t>'$1', '$6', \(SELECT id_nr FROM nr WHERE numero ilike '$2$4'\)</t>
+  </si>
+  <si>
+    <t>^(((\d+\.)+)(\d+)\.(\d+)) (.*)</t>
+  </si>
+  <si>
+    <t>\r\n^(?!\d+\.)</t>
+  </si>
+  <si>
+    <t>'$1', '$2', \(SELECT id_nr FROM nr WHERE numero ilike '14'\)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="B4:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -429,15 +429,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
